--- a/web/myData.xlsx
+++ b/web/myData.xlsx
@@ -15,72 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
-    <t>วิชา</t>
+    <t>รายการครุภัณฑ์คงเหลือปี</t>
   </si>
   <si>
-    <t>วันที่</t>
+    <t>ลำดับ</t>
   </si>
   <si>
-    <t>เวลาเริ่ม</t>
+    <t>รายการ</t>
   </si>
   <si>
-    <t>เวลาสิ้นสุด</t>
+    <t>ลักษณะ/ยี่ห้อ</t>
   </si>
   <si>
-    <t>ประเภทงาน</t>
+    <t>หมายเลขครุภัณฑ์มหาวิทยาลัย</t>
   </si>
   <si>
-    <t>section</t>
+    <t>หมายเลขครุภัณฑ์ภาควิชา</t>
   </si>
   <si>
-    <t>งานที่ปฏิบัติ</t>
+    <t>ราคาต่อหน่วย</t>
   </si>
   <si>
-    <t>จำนวนชั่วโมง</t>
+    <t>สถานที่เก็บ</t>
   </si>
   <si>
-    <t>2018-01-25</t>
+    <t>วิธีการที่ได้มา</t>
   </si>
   <si>
-    <t>15:00:00</t>
+    <t>ปีงบประมาณ</t>
   </si>
   <si>
-    <t>15:30:00</t>
+    <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>C</t>
+    <t>คอมพิวเตอร์</t>
   </si>
   <si>
-    <t>02</t>
+    <t>HP</t>
   </si>
   <si>
-    <t>2018-02-08</t>
+    <t>SC8103</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>2018-03-08</t>
-  </si>
-  <si>
-    <t>2018-03-15</t>
-  </si>
-  <si>
-    <t>2018-03-16</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>19:30:00</t>
-  </si>
-  <si>
-    <t>2018-03-22</t>
-  </si>
-  <si>
-    <t>2018-03-29</t>
+    <t>SC6601B</t>
   </si>
 </sst>
 </file>
@@ -419,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,195 +406,1201 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>342131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12300001</v>
+      </c>
+      <c r="E3">
+        <v>59300001</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12300002</v>
+      </c>
+      <c r="E4">
+        <v>59300001</v>
+      </c>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12300003</v>
+      </c>
+      <c r="E5">
+        <v>59300001</v>
+      </c>
+      <c r="F5">
+        <v>30000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>12300004</v>
+      </c>
+      <c r="E6">
+        <v>59300001</v>
+      </c>
+      <c r="F6">
+        <v>30000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12300005</v>
+      </c>
+      <c r="E7">
+        <v>59300001</v>
+      </c>
+      <c r="F7">
+        <v>30000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>12300006</v>
+      </c>
+      <c r="E8">
+        <v>59300001</v>
+      </c>
+      <c r="F8">
+        <v>30000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>12300007</v>
+      </c>
+      <c r="E9">
+        <v>59300001</v>
+      </c>
+      <c r="F9">
+        <v>30000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>12300008</v>
+      </c>
+      <c r="E10">
+        <v>59300001</v>
+      </c>
+      <c r="F10">
+        <v>30000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>12300009</v>
+      </c>
+      <c r="E11">
+        <v>59300001</v>
+      </c>
+      <c r="F11">
+        <v>30000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>12300010</v>
+      </c>
+      <c r="E12">
+        <v>59300001</v>
+      </c>
+      <c r="F12">
+        <v>30000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12300001</v>
+      </c>
+      <c r="E13">
+        <v>59300001</v>
+      </c>
+      <c r="F13">
+        <v>30000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12300002</v>
+      </c>
+      <c r="E14">
+        <v>59300001</v>
+      </c>
+      <c r="F14">
+        <v>30000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12300003</v>
+      </c>
+      <c r="E15">
+        <v>59300001</v>
+      </c>
+      <c r="F15">
+        <v>30000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>12300004</v>
+      </c>
+      <c r="E16">
+        <v>59300001</v>
+      </c>
+      <c r="F16">
+        <v>30000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12300005</v>
+      </c>
+      <c r="E17">
+        <v>59300001</v>
+      </c>
+      <c r="F17">
+        <v>30000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12300006</v>
+      </c>
+      <c r="E18">
+        <v>59300001</v>
+      </c>
+      <c r="F18">
+        <v>30000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12300007</v>
+      </c>
+      <c r="E19">
+        <v>59300001</v>
+      </c>
+      <c r="F19">
+        <v>30000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12300008</v>
+      </c>
+      <c r="E20">
+        <v>59300001</v>
+      </c>
+      <c r="F20">
+        <v>30000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>12300009</v>
+      </c>
+      <c r="E21">
+        <v>59300001</v>
+      </c>
+      <c r="F21">
+        <v>30000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12300010</v>
+      </c>
+      <c r="E22">
+        <v>59300001</v>
+      </c>
+      <c r="F22">
+        <v>30000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13">
-        <v>0.5</v>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12300001</v>
+      </c>
+      <c r="E23">
+        <v>59300001</v>
+      </c>
+      <c r="F23">
+        <v>30000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>12300002</v>
+      </c>
+      <c r="E24">
+        <v>59300001</v>
+      </c>
+      <c r="F24">
+        <v>30000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>12300003</v>
+      </c>
+      <c r="E25">
+        <v>59300001</v>
+      </c>
+      <c r="F25">
+        <v>30000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>12300004</v>
+      </c>
+      <c r="E26">
+        <v>59300001</v>
+      </c>
+      <c r="F26">
+        <v>30000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>12300005</v>
+      </c>
+      <c r="E27">
+        <v>59300001</v>
+      </c>
+      <c r="F27">
+        <v>30000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>12300006</v>
+      </c>
+      <c r="E28">
+        <v>59300001</v>
+      </c>
+      <c r="F28">
+        <v>30000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>12300007</v>
+      </c>
+      <c r="E29">
+        <v>59300001</v>
+      </c>
+      <c r="F29">
+        <v>30000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>12300008</v>
+      </c>
+      <c r="E30">
+        <v>59300001</v>
+      </c>
+      <c r="F30">
+        <v>30000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>12300009</v>
+      </c>
+      <c r="E31">
+        <v>59300001</v>
+      </c>
+      <c r="F31">
+        <v>30000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>12300010</v>
+      </c>
+      <c r="E32">
+        <v>59300001</v>
+      </c>
+      <c r="F32">
+        <v>30000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>12300001</v>
+      </c>
+      <c r="E33">
+        <v>59300001</v>
+      </c>
+      <c r="F33">
+        <v>30000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>12300002</v>
+      </c>
+      <c r="E34">
+        <v>59300001</v>
+      </c>
+      <c r="F34">
+        <v>30000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>12300003</v>
+      </c>
+      <c r="E35">
+        <v>59300001</v>
+      </c>
+      <c r="F35">
+        <v>30000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>12300004</v>
+      </c>
+      <c r="E36">
+        <v>59300001</v>
+      </c>
+      <c r="F36">
+        <v>30000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>12300005</v>
+      </c>
+      <c r="E37">
+        <v>59300001</v>
+      </c>
+      <c r="F37">
+        <v>30000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>12300006</v>
+      </c>
+      <c r="E38">
+        <v>59300001</v>
+      </c>
+      <c r="F38">
+        <v>30000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>12300007</v>
+      </c>
+      <c r="E39">
+        <v>59300001</v>
+      </c>
+      <c r="F39">
+        <v>30000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>12300008</v>
+      </c>
+      <c r="E40">
+        <v>59300001</v>
+      </c>
+      <c r="F40">
+        <v>30000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>12300009</v>
+      </c>
+      <c r="E41">
+        <v>59300001</v>
+      </c>
+      <c r="F41">
+        <v>30000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>12300010</v>
+      </c>
+      <c r="E42">
+        <v>59300001</v>
+      </c>
+      <c r="F42">
+        <v>30000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>2562</v>
       </c>
     </row>
   </sheetData>
